--- a/datasets/xlsx/tabela(tratado).xlsx
+++ b/datasets/xlsx/tabela(tratado).xlsx
@@ -6558,7 +6558,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
